--- a/Spankulator-Hardware/bom/LCSC/Spankulator.xlsx
+++ b/Spankulator-Hardware/bom/LCSC/Spankulator.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shann\Dropbox\moog\spankulator\Spankulator-Hardware\bom\LCSC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{0949C12E-C4E7-4F66-8CEE-0586039D7003}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45DF5292-AB6C-4696-B025-9ED2286BE694}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Spankulator" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="87">
   <si>
     <t>Reference</t>
   </si>
@@ -61,43 +61,22 @@
     <t>C50520</t>
   </si>
   <si>
-    <t xml:space="preserve">C14 </t>
+    <t xml:space="preserve">C5 C6 C7 C9 C12 C13 C17 C20 </t>
+  </si>
+  <si>
+    <t>100nF</t>
+  </si>
+  <si>
+    <t>C400087</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C8 C10 C14 </t>
   </si>
   <si>
     <t>1uF</t>
   </si>
   <si>
-    <t>Capacitor_THT:C_Rect_L4.6mm_W2.0mm_P2.50mm_MKS02_FKP02</t>
-  </si>
-  <si>
-    <t>C2170934</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C3 C4 </t>
-  </si>
-  <si>
-    <t>100uF</t>
-  </si>
-  <si>
-    <t>Capacitor_THT:CP_Radial_D8.0mm_P3.50mm</t>
-  </si>
-  <si>
-    <t>C1582038</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C5 C6 C7 C9 C12 C13 C17 C20 </t>
-  </si>
-  <si>
-    <t>100nF</t>
-  </si>
-  <si>
-    <t>C400087</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C8 C10 </t>
-  </si>
-  <si>
-    <t>330nF</t>
+    <t>C94708</t>
   </si>
   <si>
     <t xml:space="preserve">D1 D2 D7 D8 D9 D15 D16 D19 D20 </t>
@@ -136,10 +115,10 @@
     <t xml:space="preserve">Q3 Q5 Q7 Q8 </t>
   </si>
   <si>
-    <t>TN2106</t>
-  </si>
-  <si>
-    <t>C258163</t>
+    <t>2N7000TA</t>
+  </si>
+  <si>
+    <t>C107290</t>
   </si>
   <si>
     <t xml:space="preserve">R1 R11 </t>
@@ -160,7 +139,7 @@
     <t>100K</t>
   </si>
   <si>
-    <t>C2894598</t>
+    <t>C120103</t>
   </si>
   <si>
     <t xml:space="preserve">R17 </t>
@@ -184,7 +163,7 @@
     <t xml:space="preserve">R19 R20 </t>
   </si>
   <si>
-    <t>C1740146</t>
+    <t>C129899</t>
   </si>
   <si>
     <t xml:space="preserve">R2 R3 R4 R5 R6 R8 R14 R15 R21 </t>
@@ -238,10 +217,7 @@
     <t>43K</t>
   </si>
   <si>
-    <t>C2896814</t>
-  </si>
-  <si>
-    <t>Package_DIP:DIP-8_W7.62mm_Socket</t>
+    <t>C433719</t>
   </si>
   <si>
     <t xml:space="preserve">SW2 SW3 SW4 SW5 SW6 SW7 SW8 </t>
@@ -271,6 +247,15 @@
     <t>C132508</t>
   </si>
   <si>
+    <t xml:space="preserve">U4 </t>
+  </si>
+  <si>
+    <t>MC78L05_TO92</t>
+  </si>
+  <si>
+    <t>Package_TO_SOT_THT:TO-92_Inline_Wide</t>
+  </si>
+  <si>
     <t xml:space="preserve">U5 </t>
   </si>
   <si>
@@ -292,13 +277,16 @@
     <t>C72124</t>
   </si>
   <si>
-    <t xml:space="preserve"> U3 </t>
+    <t>C156437</t>
+  </si>
+  <si>
+    <t>U3</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1132,18 +1120,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E27"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="44.85546875" customWidth="1"/>
-    <col min="4" max="4" width="70" customWidth="1"/>
-    <col min="5" max="5" width="21.85546875" customWidth="1"/>
+    <col min="4" max="4" width="80.85546875" customWidth="1"/>
+    <col min="5" max="5" width="19.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -1202,67 +1189,67 @@
         <v>13</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
         <v>14</v>
       </c>
       <c r="D4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" t="s">
         <v>15</v>
-      </c>
-      <c r="E4" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5">
+        <v>3</v>
+      </c>
+      <c r="C5" t="s">
         <v>17</v>
       </c>
-      <c r="B5">
-        <v>2</v>
-      </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" t="s">
         <v>18</v>
-      </c>
-      <c r="D5" t="s">
-        <v>19</v>
-      </c>
-      <c r="E5" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6">
+        <v>9</v>
+      </c>
+      <c r="C6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" t="s">
         <v>21</v>
       </c>
-      <c r="B6">
-        <v>8</v>
-      </c>
-      <c r="C6" t="s">
+      <c r="E6" t="s">
         <v>22</v>
-      </c>
-      <c r="D6" t="s">
-        <v>7</v>
-      </c>
-      <c r="E6" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B7">
         <v>2</v>
       </c>
       <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" t="s">
         <v>25</v>
-      </c>
-      <c r="D7" t="s">
-        <v>7</v>
-      </c>
-      <c r="E7" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -1270,7 +1257,7 @@
         <v>26</v>
       </c>
       <c r="B8">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C8" t="s">
         <v>27</v>
@@ -1287,7 +1274,7 @@
         <v>30</v>
       </c>
       <c r="B9">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C9" t="s">
         <v>31</v>
@@ -1321,7 +1308,7 @@
         <v>37</v>
       </c>
       <c r="B11">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C11" t="s">
         <v>38</v>
@@ -1338,166 +1325,166 @@
         <v>40</v>
       </c>
       <c r="B12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C12" t="s">
         <v>41</v>
       </c>
       <c r="D12" t="s">
+        <v>35</v>
+      </c>
+      <c r="E12" t="s">
         <v>42</v>
-      </c>
-      <c r="E12" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
+        <v>43</v>
+      </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="C13" t="s">
         <v>44</v>
       </c>
-      <c r="B13">
-        <v>2</v>
-      </c>
-      <c r="C13" t="s">
+      <c r="D13" t="s">
+        <v>35</v>
+      </c>
+      <c r="E13" t="s">
         <v>45</v>
-      </c>
-      <c r="D13" t="s">
-        <v>42</v>
-      </c>
-      <c r="E13" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
+        <v>46</v>
+      </c>
+      <c r="B14">
+        <v>2</v>
+      </c>
+      <c r="C14">
+        <v>470</v>
+      </c>
+      <c r="D14" t="s">
+        <v>35</v>
+      </c>
+      <c r="E14" t="s">
         <v>47</v>
-      </c>
-      <c r="B14">
-        <v>1</v>
-      </c>
-      <c r="C14" t="s">
-        <v>48</v>
-      </c>
-      <c r="D14" t="s">
-        <v>42</v>
-      </c>
-      <c r="E14" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
+        <v>48</v>
+      </c>
+      <c r="B15">
+        <v>9</v>
+      </c>
+      <c r="C15" t="s">
+        <v>49</v>
+      </c>
+      <c r="D15" t="s">
+        <v>35</v>
+      </c>
+      <c r="E15" t="s">
         <v>50</v>
-      </c>
-      <c r="B15">
-        <v>1</v>
-      </c>
-      <c r="C15" t="s">
-        <v>51</v>
-      </c>
-      <c r="D15" t="s">
-        <v>42</v>
-      </c>
-      <c r="E15" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B16">
         <v>2</v>
       </c>
-      <c r="C16">
-        <v>470</v>
+      <c r="C16" t="s">
+        <v>52</v>
       </c>
       <c r="D16" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="E16" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
+        <v>54</v>
+      </c>
+      <c r="B17">
+        <v>1</v>
+      </c>
+      <c r="C17" t="s">
         <v>55</v>
       </c>
-      <c r="B17">
-        <v>9</v>
-      </c>
-      <c r="C17" t="s">
+      <c r="D17" t="s">
+        <v>35</v>
+      </c>
+      <c r="E17" t="s">
         <v>56</v>
-      </c>
-      <c r="D17" t="s">
-        <v>42</v>
-      </c>
-      <c r="E17" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
+        <v>57</v>
+      </c>
+      <c r="B18">
+        <v>1</v>
+      </c>
+      <c r="C18" t="s">
         <v>58</v>
       </c>
-      <c r="B18">
-        <v>2</v>
-      </c>
-      <c r="C18" t="s">
+      <c r="D18" t="s">
+        <v>35</v>
+      </c>
+      <c r="E18" t="s">
         <v>59</v>
-      </c>
-      <c r="D18" t="s">
-        <v>42</v>
-      </c>
-      <c r="E18" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
+        <v>60</v>
+      </c>
+      <c r="B19">
+        <v>6</v>
+      </c>
+      <c r="C19" t="s">
         <v>61</v>
       </c>
-      <c r="B19">
-        <v>1</v>
-      </c>
-      <c r="C19" t="s">
+      <c r="D19" t="s">
+        <v>35</v>
+      </c>
+      <c r="E19" t="s">
         <v>62</v>
-      </c>
-      <c r="D19" t="s">
-        <v>42</v>
-      </c>
-      <c r="E19" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
+        <v>63</v>
+      </c>
+      <c r="B20">
+        <v>2</v>
+      </c>
+      <c r="C20" t="s">
         <v>64</v>
       </c>
-      <c r="B20">
-        <v>1</v>
-      </c>
-      <c r="C20" t="s">
+      <c r="D20" t="s">
+        <v>35</v>
+      </c>
+      <c r="E20" t="s">
         <v>65</v>
-      </c>
-      <c r="D20" t="s">
-        <v>42</v>
-      </c>
-      <c r="E20" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
+        <v>66</v>
+      </c>
+      <c r="B21">
+        <v>7</v>
+      </c>
+      <c r="C21" t="s">
         <v>67</v>
       </c>
-      <c r="B21">
-        <v>6</v>
-      </c>
-      <c r="C21" t="s">
+      <c r="D21" t="s">
         <v>68</v>
-      </c>
-      <c r="D21" t="s">
-        <v>42</v>
       </c>
       <c r="E21" t="s">
         <v>69</v>
@@ -1505,104 +1492,87 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C22" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D22" t="s">
-        <v>42</v>
+        <v>73</v>
       </c>
       <c r="E22" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="B23">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C23" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="D23" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="E23" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="B24">
         <v>1</v>
       </c>
       <c r="C24" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D24" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="E24" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B25">
         <v>1</v>
       </c>
       <c r="C25" t="s">
+        <v>79</v>
+      </c>
+      <c r="D25" t="s">
+        <v>28</v>
+      </c>
+      <c r="E25" t="s">
         <v>80</v>
-      </c>
-      <c r="D25" t="s">
-        <v>81</v>
-      </c>
-      <c r="E25" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B26">
         <v>1</v>
       </c>
       <c r="C26" t="s">
+        <v>82</v>
+      </c>
+      <c r="D26" t="s">
+        <v>83</v>
+      </c>
+      <c r="E26" t="s">
         <v>84</v>
-      </c>
-      <c r="D26" t="s">
-        <v>35</v>
-      </c>
-      <c r="E26" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>86</v>
-      </c>
-      <c r="B27">
-        <v>1</v>
-      </c>
-      <c r="C27" t="s">
-        <v>87</v>
-      </c>
-      <c r="D27" t="s">
-        <v>88</v>
-      </c>
-      <c r="E27" t="s">
-        <v>89</v>
       </c>
     </row>
   </sheetData>
